--- a/SchedulingData/dynamic15/pso/scheduling2_20.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,306 +462,306 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>219.32</v>
+        <v>212.5</v>
       </c>
       <c r="D2" t="n">
-        <v>317.82</v>
+        <v>247.5</v>
       </c>
       <c r="E2" t="n">
-        <v>14.368</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>233.28</v>
+        <v>235.42</v>
       </c>
       <c r="D3" t="n">
-        <v>295.86</v>
+        <v>287.04</v>
       </c>
       <c r="E3" t="n">
-        <v>13.044</v>
+        <v>12.996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>317.82</v>
+        <v>214.16</v>
       </c>
       <c r="D4" t="n">
-        <v>375.82</v>
+        <v>285.06</v>
       </c>
       <c r="E4" t="n">
-        <v>12.208</v>
+        <v>14.004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>246.14</v>
+        <v>247.5</v>
       </c>
       <c r="D5" t="n">
-        <v>322.2</v>
+        <v>297.3</v>
       </c>
       <c r="E5" t="n">
-        <v>11.88</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>240.48</v>
+        <v>297.3</v>
       </c>
       <c r="D6" t="n">
-        <v>322.38</v>
+        <v>346.1</v>
       </c>
       <c r="E6" t="n">
-        <v>9.432</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>295.86</v>
+        <v>285.06</v>
       </c>
       <c r="D7" t="n">
-        <v>343.66</v>
+        <v>326</v>
       </c>
       <c r="E7" t="n">
-        <v>9.404</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>234.72</v>
+        <v>235.84</v>
       </c>
       <c r="D8" t="n">
-        <v>303.72</v>
+        <v>309.14</v>
       </c>
       <c r="E8" t="n">
-        <v>9.928000000000001</v>
+        <v>9.715999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>322.2</v>
+        <v>224.18</v>
       </c>
       <c r="D9" t="n">
-        <v>386.26</v>
+        <v>291.58</v>
       </c>
       <c r="E9" t="n">
-        <v>8.603999999999999</v>
+        <v>12.472</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>343.66</v>
+        <v>291.58</v>
       </c>
       <c r="D10" t="n">
-        <v>400.74</v>
+        <v>377.84</v>
       </c>
       <c r="E10" t="n">
-        <v>5.316</v>
+        <v>8.936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>303.72</v>
+        <v>309.14</v>
       </c>
       <c r="D11" t="n">
-        <v>349</v>
+        <v>386.34</v>
       </c>
       <c r="E11" t="n">
-        <v>6.04</v>
+        <v>4.616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>375.82</v>
+        <v>215.36</v>
       </c>
       <c r="D12" t="n">
-        <v>419.24</v>
+        <v>289.38</v>
       </c>
       <c r="E12" t="n">
-        <v>8.996</v>
+        <v>11.212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>386.26</v>
+        <v>289.38</v>
       </c>
       <c r="D13" t="n">
-        <v>443.86</v>
+        <v>388.1</v>
       </c>
       <c r="E13" t="n">
-        <v>6.444</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>443.86</v>
+        <v>386.34</v>
       </c>
       <c r="D14" t="n">
-        <v>498.54</v>
+        <v>446.14</v>
       </c>
       <c r="E14" t="n">
-        <v>2.596</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>322.38</v>
+        <v>446.14</v>
       </c>
       <c r="D15" t="n">
-        <v>368.44</v>
+        <v>530.37</v>
       </c>
       <c r="E15" t="n">
-        <v>5.956</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>368.44</v>
+        <v>287.04</v>
       </c>
       <c r="D16" t="n">
-        <v>449.96</v>
+        <v>346</v>
       </c>
       <c r="E16" t="n">
-        <v>1.924</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>449.96</v>
+        <v>346</v>
       </c>
       <c r="D17" t="n">
-        <v>537.71</v>
+        <v>392.02</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>5.268</v>
       </c>
     </row>
     <row r="18">
@@ -770,55 +770,55 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>221.1</v>
+        <v>377.84</v>
       </c>
       <c r="D18" t="n">
-        <v>280.04</v>
+        <v>412.46</v>
       </c>
       <c r="E18" t="n">
-        <v>10.176</v>
+        <v>6.604</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>400.74</v>
+        <v>326</v>
       </c>
       <c r="D19" t="n">
-        <v>463.86</v>
+        <v>368.7</v>
       </c>
       <c r="E19" t="n">
-        <v>2.144</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>280.04</v>
+        <v>346.1</v>
       </c>
       <c r="D20" t="n">
-        <v>350.94</v>
+        <v>406.8</v>
       </c>
       <c r="E20" t="n">
-        <v>5.196</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="21">
@@ -827,14 +827,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>463.86</v>
+        <v>406.8</v>
       </c>
       <c r="D21" t="n">
-        <v>561.0700000000001</v>
+        <v>475.88</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
@@ -846,150 +846,150 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>561.0700000000001</v>
+        <v>475.88</v>
       </c>
       <c r="D22" t="n">
-        <v>614.33</v>
+        <v>535.08</v>
       </c>
       <c r="E22" t="n">
-        <v>26.864</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>350.94</v>
+        <v>368.7</v>
       </c>
       <c r="D23" t="n">
-        <v>404.46</v>
+        <v>431.08</v>
       </c>
       <c r="E23" t="n">
-        <v>0.984</v>
+        <v>5.272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>404.46</v>
+        <v>535.08</v>
       </c>
       <c r="D24" t="n">
-        <v>494.19</v>
+        <v>605.42</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>21.816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>498.54</v>
+        <v>530.37</v>
       </c>
       <c r="D25" t="n">
-        <v>547.86</v>
+        <v>597.45</v>
       </c>
       <c r="E25" t="n">
-        <v>0.264</v>
+        <v>26.472</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>547.86</v>
+        <v>412.46</v>
       </c>
       <c r="D26" t="n">
-        <v>624.23</v>
+        <v>467.44</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>2.236</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>419.24</v>
+        <v>388.1</v>
       </c>
       <c r="D27" t="n">
-        <v>488.62</v>
+        <v>435.24</v>
       </c>
       <c r="E27" t="n">
-        <v>5.148</v>
+        <v>3.836</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>349</v>
+        <v>467.44</v>
       </c>
       <c r="D28" t="n">
-        <v>388.9</v>
+        <v>539.77</v>
       </c>
       <c r="E28" t="n">
-        <v>3.18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>488.62</v>
+        <v>539.77</v>
       </c>
       <c r="D29" t="n">
-        <v>536.72</v>
+        <v>579.01</v>
       </c>
       <c r="E29" t="n">
-        <v>1.968</v>
+        <v>27.756</v>
       </c>
     </row>
     <row r="30">
@@ -998,74 +998,74 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>536.72</v>
+        <v>597.45</v>
       </c>
       <c r="D30" t="n">
-        <v>609.78</v>
+        <v>669.95</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>24.312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>614.33</v>
+        <v>392.02</v>
       </c>
       <c r="D31" t="n">
-        <v>655.39</v>
+        <v>444.58</v>
       </c>
       <c r="E31" t="n">
-        <v>23.888</v>
+        <v>2.132</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>609.78</v>
+        <v>435.24</v>
       </c>
       <c r="D32" t="n">
-        <v>681.62</v>
+        <v>484.34</v>
       </c>
       <c r="E32" t="n">
-        <v>27.456</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>624.23</v>
+        <v>484.34</v>
       </c>
       <c r="D33" t="n">
-        <v>680.65</v>
+        <v>594.53</v>
       </c>
       <c r="E33" t="n">
-        <v>26.528</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537.71</v>
+        <v>594.53</v>
       </c>
       <c r="D34" t="n">
-        <v>576.95</v>
+        <v>661.17</v>
       </c>
       <c r="E34" t="n">
-        <v>27.756</v>
+        <v>26.496</v>
       </c>
     </row>
     <row r="35">
@@ -1093,36 +1093,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>655.39</v>
+        <v>605.42</v>
       </c>
       <c r="D35" t="n">
-        <v>694.91</v>
+        <v>643.5</v>
       </c>
       <c r="E35" t="n">
-        <v>21.556</v>
+        <v>18.648</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>494.19</v>
+        <v>444.58</v>
       </c>
       <c r="D36" t="n">
-        <v>580.45</v>
+        <v>517.22</v>
       </c>
       <c r="E36" t="n">
-        <v>26.024</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -1131,36 +1131,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>680.65</v>
+        <v>517.22</v>
       </c>
       <c r="D37" t="n">
-        <v>720.45</v>
+        <v>551.92</v>
       </c>
       <c r="E37" t="n">
-        <v>24.168</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>580.45</v>
+        <v>551.92</v>
       </c>
       <c r="D38" t="n">
-        <v>633.75</v>
+        <v>617.6799999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>21.824</v>
+        <v>24.744</v>
       </c>
     </row>
     <row r="39">
@@ -1169,36 +1169,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>388.9</v>
+        <v>431.08</v>
       </c>
       <c r="D39" t="n">
-        <v>446.72</v>
+        <v>480.6</v>
       </c>
       <c r="E39" t="n">
-        <v>0.008</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>446.72</v>
+        <v>669.95</v>
       </c>
       <c r="D40" t="n">
-        <v>513.7</v>
+        <v>722.87</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>513.7</v>
+        <v>480.6</v>
       </c>
       <c r="D41" t="n">
-        <v>570.1</v>
+        <v>571.3200000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>26.04</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>570.1</v>
+        <v>571.3200000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>630.9400000000001</v>
+        <v>612.52</v>
       </c>
       <c r="E42" t="n">
-        <v>23.076</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="43">
@@ -1245,74 +1245,112 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>633.75</v>
+        <v>579.01</v>
       </c>
       <c r="D43" t="n">
-        <v>684.6900000000001</v>
+        <v>642.4299999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>18.86</v>
+        <v>23.544</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>694.91</v>
+        <v>617.6799999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>770.11</v>
+        <v>690.3</v>
       </c>
       <c r="E44" t="n">
-        <v>18.136</v>
+        <v>21.572</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>681.62</v>
+        <v>661.17</v>
       </c>
       <c r="D45" t="n">
-        <v>756.52</v>
+        <v>717.8099999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>24.076</v>
+        <v>23.952</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>pond16</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>642.4299999999999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>694.33</v>
+      </c>
+      <c r="E46" t="n">
+        <v>20.464</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
         <v>5</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pond62</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>720.45</v>
-      </c>
-      <c r="D46" t="n">
-        <v>791.83</v>
-      </c>
-      <c r="E46" t="n">
-        <v>20.64</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>pond8</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>690.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>743.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18.392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>pond47</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>612.52</v>
+      </c>
+      <c r="D48" t="n">
+        <v>656.02</v>
+      </c>
+      <c r="E48" t="n">
+        <v>23.86</v>
       </c>
     </row>
   </sheetData>
